--- a/feedback_form.xlsx
+++ b/feedback_form.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Sr. No</t>
   </si>
@@ -28,17 +28,23 @@
     <t>manujrajaram@gmail.com</t>
   </si>
   <si>
-    <t>Manuj Personal</t>
-  </si>
-  <si>
-    <t>manujnarra18it@student.mes.ac.in</t>
+    <t>Iswaryaa GP</t>
+  </si>
+  <si>
+    <t>iswaryaagp@gmail.com</t>
+  </si>
+  <si>
+    <t>Epaphra SOY</t>
+  </si>
+  <si>
+    <t>epaphra0309@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -49,13 +55,24 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF222222"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -72,6 +89,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -323,8 +343,19 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
